--- a/nh.xlsx
+++ b/nh.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\openp\PycharmProjects\test01\Product_Product\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E361CB-6FE6-4167-A059-A4524E07D0C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Item_number</t>
   </si>
@@ -107,33 +102,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +133,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -472,26 +440,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -540,7 +502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -566,7 +528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -593,8 +555,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>